--- a/data/CS6/Market Data/CS6_market_data_2035.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C666E136-2BFC-425B-811C-10E7BB435FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA7CE97-91F6-4B5C-ABC7-E62E3EDEAE95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33270" yWindow="-7860" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31200" yWindow="-11880" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2229,7 +2229,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2035.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA7CE97-91F6-4B5C-ABC7-E62E3EDEAE95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DD491A-C4A4-4905-988F-61999CF159EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31200" yWindow="-11880" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35190" yWindow="-9750" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2035.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DD491A-C4A4-4905-988F-61999CF159EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751018FC-560E-415A-A727-A529B1184EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35190" yWindow="-9750" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34755" yWindow="-10185" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2035.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751018FC-560E-415A-A727-A529B1184EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3D7A4E-02F6-42E8-8DCC-57D99826FA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34755" yWindow="-10185" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34320" yWindow="-10620" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2035.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3D7A4E-02F6-42E8-8DCC-57D99826FA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5050B2A1-0A35-4FB9-A54C-F7AB96ECD73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34320" yWindow="-10620" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33885" yWindow="-11055" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2035.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5050B2A1-0A35-4FB9-A54C-F7AB96ECD73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DA9312-28FD-4BD3-B279-9E6788033E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33885" yWindow="-11055" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34755" yWindow="-10185" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2035.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DA9312-28FD-4BD3-B279-9E6788033E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA94E70-2707-4C6E-80F0-6769B56FAC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34755" yWindow="-10185" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35190" yWindow="-9750" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2035.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA94E70-2707-4C6E-80F0-6769B56FAC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720984B7-8AE2-4893-9A94-12450BFC01A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35190" yWindow="-9750" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33885" yWindow="-11055" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2035.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2035.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720984B7-8AE2-4893-9A94-12450BFC01A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8699B07F-A0C4-42A4-9B5F-67D28A951ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33885" yWindow="-11055" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2035.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2035.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8699B07F-A0C4-42A4-9B5F-67D28A951ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5CAAD0-9432-4B02-BDEB-0E4308E026F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33885" yWindow="-11055" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2035.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5CAAD0-9432-4B02-BDEB-0E4308E026F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90545C0C-858D-4F26-8DA9-C551F55A75DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33885" yWindow="-11055" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34320" yWindow="-10620" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2035.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2035.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90545C0C-858D-4F26-8DA9-C551F55A75DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6FA539-7688-45EF-B10A-60F28D012E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34320" yWindow="-10620" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2035.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6FA539-7688-45EF-B10A-60F28D012E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB69111-446D-4CF8-99B7-DE280A8D3FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34320" yWindow="-10620" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33885" yWindow="-11055" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
